--- a/biology/Zoologie/Ermanno_Giglio-Tos/Ermanno_Giglio-Tos.xlsx
+++ b/biology/Zoologie/Ermanno_Giglio-Tos/Ermanno_Giglio-Tos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ermanno Giglio-Tos (1865–1926) est un entomologiste italien. Il s'est notamment intéressé la diptérologie et à la classification des mantes religieuses (Mantodea).
 </t>
@@ -513,12 +525,85 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1907
-Giglio-Tos, E., 1907: Ortotteri Africani. Parte II. Blattodea, Mantodea, Phasmodea, Locustodea, Gryllodea. Bollettino dei Musei di Zoologia ed Anatomia Comp. R. Univ. Torino, 22(554):10.
-1915
-Giglio-Tos, E., 1915: Mantidi esotici. Generi e specie nuove. Bullettino della Società entomologica italiana.
-1919
-Giglio-Tos, E., 1919: Saggio di una nuova classificazione dei Mantidi. Bullettino della Società Entomologica Italiana.</t>
+          <t>1907</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Giglio-Tos, E., 1907: Ortotteri Africani. Parte II. Blattodea, Mantodea, Phasmodea, Locustodea, Gryllodea. Bollettino dei Musei di Zoologia ed Anatomia Comp. R. Univ. Torino, 22(554):10.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ermanno_Giglio-Tos</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ermanno_Giglio-Tos</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1915</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Giglio-Tos, E., 1915: Mantidi esotici. Generi e specie nuove. Bullettino della Società entomologica italiana.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ermanno_Giglio-Tos</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ermanno_Giglio-Tos</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Giglio-Tos, E., 1919: Saggio di una nuova classificazione dei Mantidi. Bullettino della Società Entomologica Italiana.</t>
         </is>
       </c>
     </row>
